--- a/ValueSet-i2x-tabac.xlsx
+++ b/ValueSet-i2x-tabac.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-09T15:00:50+02:00</t>
+    <t>2025-04-14T13:33:24+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-i2x-tabac.xlsx
+++ b/ValueSet-i2x-tabac.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T13:33:24+02:00</t>
+    <t>2025-05-23T16:57:29+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-i2x-tabac.xlsx
+++ b/ValueSet-i2x-tabac.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:57:29+02:00</t>
+    <t>2025-05-27T16:55:56+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-i2x-tabac.xlsx
+++ b/ValueSet-i2x-tabac.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-27T16:55:56+02:00</t>
+    <t>2025-05-28T10:00:58+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-i2x-tabac.xlsx
+++ b/ValueSet-i2x-tabac.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-28T10:00:58+02:00</t>
+    <t>2025-04-14</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Copyright</t>
+  </si>
+  <si>
+    <t>RM@H IG (C) 2025-2025 University Hospital of Liege, GSI Department, Belgium. This implementation guide is free software: you can redistribute it and/or modify it under the terms of the GNU General Public License as published by the Free Software Foundation, either version 3 of the License, or (at your option) any later version. This program is distributed in the hope that it will be useful, but WITHOUT ANY WARRANTY; without even the implied warranty of MERCHANTABILITY or FITNESS FOR A PARTICULAR PURPOSE. See the GNU General Public License for more details. You should have received a copy of the GNU General Public License along with this program. If not, see &lt;http://www.gnu.org/licenses/&gt;.</t>
   </si>
   <si>
     <t>Immutable</t>
@@ -365,14 +368,16 @@
       <c r="A14" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" t="s" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -394,7 +399,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>21</v>
@@ -402,26 +407,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -434,10 +439,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
